--- a/downloaded_files/EPES403_Tutorial-35438.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35438.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,15 +96,6 @@
     <x:t>Eslam Yousef Ahmed Ahmed Mohamed ElKorashy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الاء محمود الحسين عبدالعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220227</x:t>
   </x:si>
   <x:si>
@@ -247,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed shawket Moustafa Taha Khalaaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مجدى محمد احمد ايوب</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mariam Magdy Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>4230181</x:t>
@@ -413,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1028,7 +1010,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45907.419581794</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1060,7 +1042,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.419581794</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1074,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1106,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1138,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4153457176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1188,7 +1170,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4153457176</x:v>
+        <x:v>45907.4173033218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1220,7 +1202,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4173033218</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1252,7 +1234,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1284,7 +1266,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1316,7 +1298,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1348,7 +1330,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1380,7 +1362,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4197170949</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1412,7 +1394,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4197170949</x:v>
+        <x:v>45907.4148835301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1444,7 +1426,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148835301</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1476,7 +1458,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1508,7 +1490,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1540,7 +1522,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1568,11 +1550,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1595,16 +1575,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45909.415621794</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1627,14 +1607,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1683,70 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45909.5512003472</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Tutorial-35438.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35438.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Steven Sameh Daniel Ghabrial Beshai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيله احمد سليمان عبدالرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila ahmed Soliman Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1220322</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1234,7 +1225,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1266,7 +1257,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1298,7 +1289,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1330,7 +1321,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4197170949</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1362,7 +1353,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4197170949</x:v>
+        <x:v>45907.4148835301</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1394,7 +1385,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148835301</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1426,7 +1417,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1458,7 +1449,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1490,7 +1481,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1518,11 +1509,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1545,14 +1534,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45909.415621794</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Tutorial-35438.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35438.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -262,6 +262,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Ahmed Hassan Shaltout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220213</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -696,7 +705,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45928.7188393171</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Tutorial-35438.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35438.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -262,15 +262,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Ahmed Hassan Shaltout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220213</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -705,7 +696,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45928.7188393171</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
